--- a/2019_sell/20191204.xlsx
+++ b/2019_sell/20191204.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Blizzard\World of Warcraft\wow_dkp\2019_sell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A575B0-35ED-4DC5-AC9B-C8AD79C2531F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14CD670-221F-424A-A65D-F01E9F8F3E64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{90E51262-4B9F-477D-A907-ED8B90799079}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
   <si>
     <t>价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,6 +390,10 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马果果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +820,7 @@
   <dimension ref="A3:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1089,7 +1093,7 @@
       </c>
       <c r="K14">
         <f>SUM(C14:C99) + SUM(H:H)</f>
-        <v>10810</v>
+        <v>10790</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1183,7 +1187,7 @@
       </c>
       <c r="K23">
         <f>K14</f>
-        <v>10810</v>
+        <v>10790</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
@@ -1276,10 +1280,10 @@
         <v>53</v>
       </c>
       <c r="C28">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s">
         <v>12</v>
@@ -1339,7 +1343,7 @@
       </c>
       <c r="K30">
         <f>K23*0.02</f>
-        <v>216.20000000000002</v>
+        <v>215.8</v>
       </c>
       <c r="M30">
         <v>6</v>
@@ -1371,7 +1375,7 @@
       </c>
       <c r="K31">
         <f>K23*0.02</f>
-        <v>216.20000000000002</v>
+        <v>215.8</v>
       </c>
       <c r="M31">
         <v>7</v>
@@ -1471,7 +1475,7 @@
       </c>
       <c r="K37">
         <f>K23-SUM(K28:K31)</f>
-        <v>10357.6</v>
+        <v>10338.4</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
@@ -1490,7 +1494,7 @@
       </c>
       <c r="K38">
         <f>K37/K15</f>
-        <v>265.57948717948722</v>
+        <v>265.08717948717947</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
@@ -1518,7 +1522,7 @@
       </c>
       <c r="K40">
         <f>K38*J40</f>
-        <v>265.57948717948722</v>
+        <v>265.08717948717947</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
@@ -1540,7 +1544,7 @@
       </c>
       <c r="K41">
         <f>K38*J41</f>
-        <v>531.15897435897443</v>
+        <v>530.17435897435894</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
@@ -1565,7 +1569,7 @@
       </c>
       <c r="K42">
         <f>K38*J42</f>
-        <v>796.73846153846171</v>
+        <v>795.26153846153841</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
@@ -1578,7 +1582,7 @@
       </c>
       <c r="K43">
         <f>K38*J43</f>
-        <v>1062.3179487179489</v>
+        <v>1060.3487179487179</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
@@ -1600,7 +1604,7 @@
       </c>
       <c r="K44">
         <f>K38*J44</f>
-        <v>1327.897435897436</v>
+        <v>1325.4358974358975</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
@@ -1622,7 +1626,7 @@
       </c>
       <c r="K45">
         <f>K38*J45</f>
-        <v>1593.4769230769234</v>
+        <v>1590.5230769230768</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
@@ -1644,7 +1648,7 @@
       </c>
       <c r="K46">
         <f>K38*J46</f>
-        <v>1859.0564102564106</v>
+        <v>1855.6102564102562</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
@@ -1684,7 +1688,7 @@
       </c>
       <c r="K49">
         <f>K30/K48</f>
-        <v>72.066666666666677</v>
+        <v>71.933333333333337</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
